--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="169">
   <si>
     <t>&lt;option value="</t>
   </si>
@@ -436,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>52A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>52B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,6 +685,14 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=t7pdSvq4fL8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052A - 廣論-P120L7~P122L6-深信業果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yfD6sqYB2K8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1064,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E160" sqref="A1:E160"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1088,13 +1092,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2897,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2912,13 +2916,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,16 +2931,19 @@
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>yfD6sqYB2K8</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
@@ -2969,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
@@ -2987,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
@@ -3005,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
@@ -3023,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
@@ -3041,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
@@ -3059,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
@@ -3077,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
@@ -3095,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
@@ -3113,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
@@ -3131,13 +3138,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3152,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
@@ -3170,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
@@ -3188,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
@@ -3206,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
@@ -3224,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
@@ -3242,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3263,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
@@ -3281,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
@@ -3299,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
@@ -3317,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E124" t="s">
         <v>2</v>
@@ -3335,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
@@ -3353,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
@@ -3371,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
@@ -3389,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
@@ -3407,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -3425,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -3443,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -3461,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -3479,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -3497,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -3515,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -3533,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -3551,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -3569,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -3587,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -3605,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -3623,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -3641,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -3659,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -3677,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -3695,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -3713,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -3731,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -3749,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -3767,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -3785,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -3803,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -3821,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -3839,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -3857,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -3875,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -3893,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -3911,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -3929,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -3947,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -3965,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>

--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="170">
   <si>
     <t>&lt;option value="</t>
   </si>
@@ -436,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>52B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>53B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,6 +686,15 @@
   <si>
     <t>https://www.youtube.com/watch?v=yfD6sqYB2K8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052B - 廣論-P122L6~P125L5-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BML0_No29Zo</t>
+  </si>
+  <si>
+    <t>053A - 廣論-P125L5~P126L9-深信業果</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1092,13 +1093,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2901,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2916,13 +2917,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
+        <v>162</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E102" t="s">
-        <v>2</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2937,13 +2938,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2952,16 +2953,19 @@
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>BML0_No29Zo</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
@@ -2994,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
@@ -3012,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
@@ -3030,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
@@ -3048,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
@@ -3066,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
@@ -3084,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
@@ -3102,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
@@ -3120,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
@@ -3138,13 +3142,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3159,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
@@ -3177,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
@@ -3195,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
@@ -3213,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
@@ -3231,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
@@ -3249,13 +3253,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3270,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
@@ -3288,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
@@ -3306,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
@@ -3324,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E124" t="s">
         <v>2</v>
@@ -3342,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
@@ -3360,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
@@ -3378,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
@@ -3396,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
@@ -3414,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -3432,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -3450,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -3468,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -3486,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -3504,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -3522,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -3540,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -3558,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -3576,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -3594,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -3612,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -3630,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -3648,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -3666,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -3684,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -3702,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -3720,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -3738,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -3756,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -3774,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -3792,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -3810,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -3828,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -3846,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -3864,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -3882,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -3900,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -3918,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -3936,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -3954,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -3972,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>

--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="191">
   <si>
     <t>&lt;option value="</t>
   </si>
@@ -436,86 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>53B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>64B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,6 +615,138 @@
   </si>
   <si>
     <t>053A - 廣論-P125L5~P126L9-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FB9bVDIGjwA</t>
+  </si>
+  <si>
+    <t>053B - 廣論-P126L9~P128L3-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zh7gG6uXzVM</t>
+  </si>
+  <si>
+    <t>054A - 廣論-P128L3~P129L4-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xerwgGAiqPQ</t>
+  </si>
+  <si>
+    <t>054B - 廣論-P129L4~P130L3-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K-WHCLA5c5o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>055A - 廣論-P130L3~P131L9-深信業果</t>
+  </si>
+  <si>
+    <t>055B - 廣論-P131L9~P132L11-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V1XNbHGOL5w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xySBSzIyj0A</t>
+  </si>
+  <si>
+    <t>056B - 廣論-P133L6~P134L9-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2VEs1bHz4XU</t>
+  </si>
+  <si>
+    <t>056A - 廣論-P132L11~P133L6-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QFWs5YtiOfg</t>
+  </si>
+  <si>
+    <t>057A - 廣論-P134L9~P135L13-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LEMdTtMIfZQ</t>
+  </si>
+  <si>
+    <t>058A - 廣論-P136L5~P136L13-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yrdAi3Pdjjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>058B - 廣論-P136L13~P137L12-深信業果</t>
+  </si>
+  <si>
+    <t>059A - 廣論-P137L12~P139L10-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0aW9A33djAI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_-Xyd_UGlfg</t>
+  </si>
+  <si>
+    <t>059B - 廣論-P139L10~P140L9-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HCNVxG0iuxo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>060A - 廣論-P140L9~P141L5-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sXQzKzldVYQ</t>
+  </si>
+  <si>
+    <t>061B - 廣論-P142L6~P142L12-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CRv734-TYEU</t>
+  </si>
+  <si>
+    <t>061A - 廣論-P141L11~P142L5-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z74qsXzFc08</t>
+  </si>
+  <si>
+    <t>062A - 廣論-P142L12~P144L1-深信業果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>062B - 廣論-P144L1~P145L2-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eOpH1ekXrNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cjnnTjbPZcg</t>
+  </si>
+  <si>
+    <t>064A - 廣論-P146L6~P146L12-深信業果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>063B - 廣論-P145L7~P146L6-深信業果</t>
+  </si>
+  <si>
+    <t>063A - 廣論-P145L2~P145L7-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XEL5lu8IAFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tWjWM2OE-YI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tR8hx8tDbuM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1069,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1093,13 +1145,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2902,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2917,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2959,13 +3011,13 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,16 +3026,19 @@
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>FB9bVDIGjwA</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2992,16 +3047,19 @@
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>zh7gG6uXzVM</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,16 +3068,19 @@
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>xerwgGAiqPQ</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3028,16 +3089,19 @@
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>K-WHCLA5c5o</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3046,16 +3110,19 @@
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>V1XNbHGOL5w</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3064,16 +3131,19 @@
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>xySBSzIyj0A</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3082,16 +3152,19 @@
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>QFWs5YtiOfg</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3100,16 +3173,19 @@
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2VEs1bHz4XU</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,16 +3194,19 @@
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>LEMdTtMIfZQ</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3142,13 +3221,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,16 +3236,19 @@
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>yrdAi3Pdjjc</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3175,16 +3257,19 @@
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>_-Xyd_UGlfg</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3193,16 +3278,19 @@
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0aW9A33djAI</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3211,16 +3299,19 @@
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>HCNVxG0iuxo</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3229,16 +3320,19 @@
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>sXQzKzldVYQ</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3253,13 +3347,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3268,16 +3362,19 @@
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Z74qsXzFc08</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3286,16 +3383,19 @@
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CRv734-TYEU</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3304,16 +3404,19 @@
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>eOpH1ekXrNA</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3322,16 +3425,19 @@
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>cjnnTjbPZcg</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="E124" t="s">
         <v>2</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3340,16 +3446,19 @@
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>XEL5lu8IAFM</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3358,16 +3467,19 @@
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>tWjWM2OE-YI</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3376,16 +3488,19 @@
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>tR8hx8tDbuM</v>
       </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3400,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
@@ -3418,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -3436,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -3454,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -3472,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -3490,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -3508,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -3526,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -3544,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -3562,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -3580,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -3598,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -3616,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -3634,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -3652,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -3670,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -3688,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -3706,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -3724,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -3742,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -3760,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -3778,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -3796,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -3814,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -3832,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -3850,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -3868,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -3886,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -3904,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -3922,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -3940,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -3958,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -3976,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>

--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E160" sqref="A1:E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="192">
   <si>
     <t>&lt;option value="</t>
   </si>
@@ -436,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>64B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>65A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -747,6 +743,12 @@
   <si>
     <t>https://www.youtube.com/watch?v=tR8hx8tDbuM</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064B - 廣論-P146L12~P147L11-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-60z_BghxSE</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E160" sqref="A1:E160"/>
     </sheetView>
   </sheetViews>
@@ -1145,13 +1147,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2954,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2969,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2990,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E103" t="s">
-        <v>2</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E104" t="s">
-        <v>2</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3032,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="E105" t="s">
-        <v>2</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E106" t="s">
-        <v>2</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3074,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
+        <v>152</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E107" t="s">
-        <v>2</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E108" t="s">
-        <v>2</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3116,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3137,13 +3139,13 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3158,13 +3160,13 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
+        <v>162</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="E111" t="s">
-        <v>2</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3179,13 +3181,13 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
+        <v>160</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E112" t="s">
-        <v>2</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3200,13 +3202,13 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
+        <v>164</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E113" t="s">
-        <v>2</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3221,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3242,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E115" t="s">
-        <v>2</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3263,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3284,13 +3286,13 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
+        <v>169</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E117" t="s">
-        <v>2</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E118" t="s">
-        <v>2</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3326,13 +3328,13 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E119" t="s">
-        <v>2</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3347,13 +3349,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3368,13 +3370,13 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" t="s">
+        <v>2</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E121" t="s">
-        <v>2</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3389,13 +3391,13 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E122" t="s">
-        <v>2</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3431,13 +3433,13 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E124" t="s">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3452,13 +3454,13 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
+        <v>186</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E125" t="s">
-        <v>2</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3473,13 +3475,13 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3494,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3509,16 +3511,19 @@
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-60z_BghxSE</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3533,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -3551,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -3569,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -3587,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -3605,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -3623,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -3641,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -3659,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -3677,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -3695,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -3713,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -3731,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -3749,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -3767,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -3785,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -3803,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -3821,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -3839,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -3857,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -3875,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -3893,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -3911,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -3929,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -3947,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -3965,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -3983,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -4001,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -4019,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -4037,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -4055,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -4073,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -4091,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>

--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -436,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>65A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>65B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,191 +560,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=LnmuMOK0SKg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">060B - 廣論-P141L5~P141L11-深信業果 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m68DLfhBWTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">057B - 廣論-P135L13~P136L5-深信業果 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lZZL4DxLQI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>051B - 廣論-P119L2~P120L7-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pa-cXh2aApc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t7pdSvq4fL8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052A - 廣論-P120L7~P122L6-深信業果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yfD6sqYB2K8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052B - 廣論-P122L6~P125L5-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BML0_No29Zo</t>
+  </si>
+  <si>
+    <t>053A - 廣論-P125L5~P126L9-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FB9bVDIGjwA</t>
+  </si>
+  <si>
+    <t>053B - 廣論-P126L9~P128L3-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zh7gG6uXzVM</t>
+  </si>
+  <si>
+    <t>054A - 廣論-P128L3~P129L4-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xerwgGAiqPQ</t>
+  </si>
+  <si>
+    <t>054B - 廣論-P129L4~P130L3-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K-WHCLA5c5o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>055A - 廣論-P130L3~P131L9-深信業果</t>
+  </si>
+  <si>
+    <t>055B - 廣論-P131L9~P132L11-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V1XNbHGOL5w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xySBSzIyj0A</t>
+  </si>
+  <si>
+    <t>056B - 廣論-P133L6~P134L9-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2VEs1bHz4XU</t>
+  </si>
+  <si>
+    <t>056A - 廣論-P132L11~P133L6-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QFWs5YtiOfg</t>
+  </si>
+  <si>
+    <t>057A - 廣論-P134L9~P135L13-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LEMdTtMIfZQ</t>
+  </si>
+  <si>
+    <t>058A - 廣論-P136L5~P136L13-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yrdAi3Pdjjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>058B - 廣論-P136L13~P137L12-深信業果</t>
+  </si>
+  <si>
+    <t>059A - 廣論-P137L12~P139L10-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0aW9A33djAI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_-Xyd_UGlfg</t>
+  </si>
+  <si>
+    <t>059B - 廣論-P139L10~P140L9-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HCNVxG0iuxo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>060A - 廣論-P140L9~P141L5-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sXQzKzldVYQ</t>
+  </si>
+  <si>
+    <t>061B - 廣論-P142L6~P142L12-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CRv734-TYEU</t>
+  </si>
+  <si>
+    <t>061A - 廣論-P141L11~P142L5-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z74qsXzFc08</t>
+  </si>
+  <si>
+    <t>062A - 廣論-P142L12~P144L1-深信業果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>062B - 廣論-P144L1~P145L2-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eOpH1ekXrNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cjnnTjbPZcg</t>
+  </si>
+  <si>
+    <t>064A - 廣論-P146L6~P146L12-深信業果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>063B - 廣論-P145L7~P146L6-深信業果</t>
+  </si>
+  <si>
+    <t>063A - 廣論-P145L2~P145L7-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XEL5lu8IAFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tWjWM2OE-YI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tR8hx8tDbuM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064B - 廣論-P146L12~P147L11-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-60z_BghxSE</t>
+  </si>
+  <si>
+    <t>065A - 廣論-P147L11~P149L10-深信業果</t>
+  </si>
+  <si>
     <t>001A - 廣論-序 </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LnmuMOK0SKg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">060B - 廣論-P141L5~P141L11-深信業果 </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m68DLfhBWTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">057B - 廣論-P135L13~P136L5-深信業果 </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lZZL4DxLQI4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>051B - 廣論-P119L2~P120L7-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pa-cXh2aApc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t7pdSvq4fL8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>052A - 廣論-P120L7~P122L6-深信業果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yfD6sqYB2K8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>052B - 廣論-P122L6~P125L5-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BML0_No29Zo</t>
-  </si>
-  <si>
-    <t>053A - 廣論-P125L5~P126L9-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FB9bVDIGjwA</t>
-  </si>
-  <si>
-    <t>053B - 廣論-P126L9~P128L3-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zh7gG6uXzVM</t>
-  </si>
-  <si>
-    <t>054A - 廣論-P128L3~P129L4-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xerwgGAiqPQ</t>
-  </si>
-  <si>
-    <t>054B - 廣論-P129L4~P130L3-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=K-WHCLA5c5o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>055A - 廣論-P130L3~P131L9-深信業果</t>
-  </si>
-  <si>
-    <t>055B - 廣論-P131L9~P132L11-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=V1XNbHGOL5w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xySBSzIyj0A</t>
-  </si>
-  <si>
-    <t>056B - 廣論-P133L6~P134L9-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2VEs1bHz4XU</t>
-  </si>
-  <si>
-    <t>056A - 廣論-P132L11~P133L6-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QFWs5YtiOfg</t>
-  </si>
-  <si>
-    <t>057A - 廣論-P134L9~P135L13-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LEMdTtMIfZQ</t>
-  </si>
-  <si>
-    <t>058A - 廣論-P136L5~P136L13-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yrdAi3Pdjjc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>058B - 廣論-P136L13~P137L12-深信業果</t>
-  </si>
-  <si>
-    <t>059A - 廣論-P137L12~P139L10-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0aW9A33djAI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_-Xyd_UGlfg</t>
-  </si>
-  <si>
-    <t>059B - 廣論-P139L10~P140L9-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HCNVxG0iuxo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>060A - 廣論-P140L9~P141L5-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sXQzKzldVYQ</t>
-  </si>
-  <si>
-    <t>061B - 廣論-P142L6~P142L12-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CRv734-TYEU</t>
-  </si>
-  <si>
-    <t>061A - 廣論-P141L11~P142L5-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Z74qsXzFc08</t>
-  </si>
-  <si>
-    <t>062A - 廣論-P142L12~P144L1-深信業果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>062B - 廣論-P144L1~P145L2-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eOpH1ekXrNA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cjnnTjbPZcg</t>
-  </si>
-  <si>
-    <t>064A - 廣論-P146L6~P146L12-深信業果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>063B - 廣論-P145L7~P146L6-深信業果</t>
-  </si>
-  <si>
-    <t>063A - 廣論-P145L2~P145L7-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XEL5lu8IAFM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tWjWM2OE-YI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tR8hx8tDbuM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>064B - 廣論-P146L12~P147L11-深信業果</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-60z_BghxSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E160" sqref="A1:E160"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1147,13 +1147,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2956,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2971,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E102" t="s">
-        <v>2</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2992,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3013,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3055,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3097,13 +3097,13 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E109" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,13 +3139,13 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E110" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,13 +3160,13 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,13 +3181,13 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3202,13 +3202,13 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3223,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,13 +3244,13 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3286,13 +3286,13 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,13 +3328,13 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,13 +3349,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3370,13 +3370,13 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3391,13 +3391,13 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E123" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,13 +3433,13 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
+        <v>179</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E124" t="s">
-        <v>2</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3454,13 +3454,13 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3475,13 +3475,13 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3496,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3517,13 +3517,13 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -3718,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -3808,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -4006,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -4042,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>

--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="195">
   <si>
     <t>&lt;option value="</t>
   </si>
@@ -436,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>65B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,6 +741,21 @@
   <si>
     <t>001A - 廣論-序 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nPTCROYD4zc</t>
+  </si>
+  <si>
+    <t>065B - 廣論-P149L10~P150L8-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vXalgcwQvNg</t>
+  </si>
+  <si>
+    <t>066A - 廣論-P150L8~P151L7-深信業果</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oBOiW2bexfM</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1147,13 +1154,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2956,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2971,13 +2978,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E102" t="s">
-        <v>2</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2992,13 +2999,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3013,13 +3020,13 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,13 +3041,13 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3055,13 +3062,13 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3097,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,13 +3125,13 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E109" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3139,13 +3146,13 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E110" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3160,13 +3167,13 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,13 +3188,13 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3202,13 +3209,13 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3223,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3244,13 +3251,13 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,13 +3272,13 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3286,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,13 +3314,13 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,13 +3335,13 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,13 +3356,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3370,13 +3377,13 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3391,13 +3398,13 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,13 +3419,13 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E123" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,13 +3440,13 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
+        <v>177</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E124" t="s">
-        <v>2</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3454,13 +3461,13 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3475,13 +3482,13 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3496,13 +3503,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3517,70 +3524,79 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
+        <v>186</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>nPTCROYD4zc</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
         <v>188</v>
       </c>
-      <c r="E128" t="s">
-        <v>2</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B160" si="2">SUBSTITUTE(G130,"https://www.youtube.com/watch?v=","",1)</f>
-        <v/>
+        <v>vXalgcwQvNg</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>103</v>
+        <v>191</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>oBOiW2bexfM</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -3592,13 +3608,13 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -3610,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -3628,13 +3644,13 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -3646,13 +3662,13 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -3664,13 +3680,13 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -3682,13 +3698,13 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -3700,13 +3716,13 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -3718,13 +3734,13 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -3736,13 +3752,13 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -3754,13 +3770,13 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -3772,13 +3788,13 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -3790,13 +3806,13 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -3808,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -3826,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -3844,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -3862,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -3880,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -3898,7 +3914,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -3916,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -3934,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -3952,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -3970,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -3988,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -4006,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -4024,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -4042,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -4060,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -4078,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -4096,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>

--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -436,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>66B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>67B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,6 +748,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=oBOiW2bexfM</t>
+  </si>
+  <si>
+    <t>066B - 廣論-複習</t>
+  </si>
+  <si>
+    <t>067A - 廣論-P152L1~P152L5-中士道引言</t>
   </si>
 </sst>
 </file>
@@ -1130,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1154,13 +1152,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2963,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2978,13 +2976,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E102" t="s">
-        <v>2</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2999,13 +2997,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3020,13 +3018,13 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3041,13 +3039,13 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3062,13 +3060,13 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,13 +3081,13 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3104,13 +3102,13 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,13 +3123,13 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
+        <v>150</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E109" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3146,13 +3144,13 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E110" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3167,13 +3165,13 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3188,13 +3186,13 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3209,13 +3207,13 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3230,13 +3228,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3251,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3272,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3293,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3314,13 +3312,13 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3335,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3356,13 +3354,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3377,13 +3375,13 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3419,13 +3417,13 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
+        <v>174</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E123" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3440,13 +3438,13 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E124" t="s">
-        <v>2</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3461,13 +3459,13 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3482,13 +3480,13 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3503,13 +3501,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3524,13 +3522,13 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3545,13 +3543,13 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E129" t="s">
-        <v>2</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3566,13 +3564,13 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3587,13 +3585,13 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3608,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -3626,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -3644,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -3662,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -3680,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -3698,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -3716,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -3734,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -3752,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -3770,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -3788,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -3806,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -3824,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -3842,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -3860,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -3878,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -3896,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -3914,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -3932,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -3950,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -3968,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -3986,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -4004,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -4022,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -4040,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -4058,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -4076,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -4094,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -4112,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>

--- a/YOUTUBE清單.xlsx
+++ b/YOUTUBE清單.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="224">
   <si>
     <t>&lt;option value="</t>
   </si>
@@ -436,114 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>67B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=LnmuMOK0SKg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,6 +646,176 @@
   </si>
   <si>
     <t>067A - 廣論-P152L1~P152L5-中士道引言</t>
+  </si>
+  <si>
+    <t>067B - 廣論-P152L5~P153L13-中士道引</t>
+  </si>
+  <si>
+    <t>068A - 廣論-P153L13~P155L1-思惟苦諦</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D9uzGHn2TCY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6zUlIDMzgqg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dVggUuCneXw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gBPmzZAin9k</t>
+  </si>
+  <si>
+    <t>068B - 廣論-P155L1~P156L3-思惟苦諦</t>
+  </si>
+  <si>
+    <t>069A - 廣論-P156L3~P157L12-思惟苦諦</t>
+  </si>
+  <si>
+    <t>069B - 廣論-P157L12~P161L3-思惟苦諦</t>
+  </si>
+  <si>
+    <t>070A - 廣論-P161L3~P161L13-思惟苦諦</t>
+  </si>
+  <si>
+    <t>070B - 廣論-P161L13~P163L10-思惟苦諦</t>
+  </si>
+  <si>
+    <t>071A - 廣論-P163L10~P165L7-思惟苦諦</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0Kl3M_rIF5s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QaAV1P-j3ZM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=znYNJfR75YM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NvRybbQw394</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oWQnq_74qiY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2gaBE7Zc_S8</t>
+  </si>
+  <si>
+    <t>071B - 廣論-P165L7~P167L1-思惟苦諦</t>
+  </si>
+  <si>
+    <t>072A - 廣論-P167L1~P168L5-思惟苦諦</t>
+  </si>
+  <si>
+    <t>072B - 廣論-P168L5~P170L5-思惟苦諦</t>
+  </si>
+  <si>
+    <t>073A - 廣論-P170L5~P171L13-思惟集諦</t>
+  </si>
+  <si>
+    <t>073B - 廣論-P171L13~P173L2-思惟集諦</t>
+  </si>
+  <si>
+    <t>074A - 廣論-P173L2~P174L6-思惟集諦</t>
+  </si>
+  <si>
+    <t>074B - 廣論-P174L6~P175L5-思惟集諦</t>
+  </si>
+  <si>
+    <t>075A - 廣論-P175L5~P175L13-思惟集諦</t>
+  </si>
+  <si>
+    <t>075B - 廣論-P175L13~P176L13-思惟集諦</t>
+  </si>
+  <si>
+    <t>076A - 廣論-P176L13~P177L11-思惟集諦</t>
+  </si>
+  <si>
+    <t>076B - 廣論-P177L11~P178L6-思惟集諦</t>
+  </si>
+  <si>
+    <t>077A - 廣論-P178L6~P180L3-思惟集諦</t>
+  </si>
+  <si>
+    <t>078A - 廣論-P181L4~P182L10-十二緣起</t>
+  </si>
+  <si>
+    <t>077B - 廣論-P180L3~P181L4-思惟集諦</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=64pZaRX3Mu4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bJPKEPfY5tA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5qcu5Bz5ruY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oYlxspazk-k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KFJrryIUzMk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dOsJcirZeOE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jj1EGtiEAsM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VJYMneVRS34</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eOhKKP42j4M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vXZHSAjRlPg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V7bsj8zJv_4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mHTvBlAg0Ps</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ztZR1xCLHFo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o1pKNPgjuz8</t>
+  </si>
+  <si>
+    <t>078B - 廣論-P182L10~P183L13-十二緣起</t>
+  </si>
+  <si>
+    <t>079A - 廣論-P183L13~P185L2-十二緣起</t>
+  </si>
+  <si>
+    <t>079B - 廣論-十二因緣圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=esOzZoSlHtw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lwF1jZg1How</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-iX5cRMxE9c</t>
+  </si>
+  <si>
+    <t>080B - 廣論-P184L11~P185L13-十二緣起</t>
+  </si>
+  <si>
+    <t>080A - 廣論-P184L5~P184L11-十二緣起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jxM5LLSyy20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nb0kP13UxBU</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1152,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,13 +3038,13 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2997,13 +3059,13 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3018,13 +3080,13 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3039,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3081,13 +3143,13 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3102,13 +3164,13 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3123,13 +3185,13 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3144,13 +3206,13 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3165,13 +3227,13 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3186,13 +3248,13 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,13 +3269,13 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3228,13 +3290,13 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,13 +3311,13 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3270,13 +3332,13 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,13 +3353,13 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3312,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3333,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3354,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,13 +3437,13 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3396,13 +3458,13 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,13 +3479,13 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3438,13 +3500,13 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E124" t="s">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3459,13 +3521,13 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3480,13 +3542,13 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3501,13 +3563,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3522,13 +3584,13 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3543,13 +3605,13 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3564,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3585,13 +3647,13 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3600,16 +3662,19 @@
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>D9uzGHn2TCY</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3618,16 +3683,19 @@
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6zUlIDMzgqg</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3636,16 +3704,19 @@
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>dVggUuCneXw</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3654,16 +3725,19 @@
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>gBPmzZAin9k</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3672,16 +3746,19 @@
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0Kl3M_rIF5s</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3690,16 +3767,19 @@
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>QaAV1P-j3ZM</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3708,16 +3788,19 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>znYNJfR75YM</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3726,16 +3809,19 @@
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>NvRybbQw394</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3744,16 +3830,19 @@
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>oWQnq_74qiY</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3762,16 +3851,19 @@
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2gaBE7Zc_S8</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3780,16 +3872,19 @@
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>64pZaRX3Mu4</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3798,16 +3893,19 @@
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>bJPKEPfY5tA</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3816,304 +3914,355 @@
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>5qcu5Bz5ruY</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G144" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>oYlxspazk-k</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G145" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>KFJrryIUzMk</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G146" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>dOsJcirZeOE</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G147" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>jj1EGtiEAsM</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>VJYMneVRS34</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G149" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>eOhKKP42j4M</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>vXZHSAjRlPg</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>V7bsj8zJv_4</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>mHTvBlAg0Ps</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G153" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>ztZR1xCLHFo</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G154" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>o1pKNPgjuz8</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G155" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>esOzZoSlHtw</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G156" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>lwF1jZg1How</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G157" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-iX5cRMxE9c</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G158" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>jxM5LLSyy20</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G159" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Nb0kP13UxBU</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
